--- a/11.xlsx
+++ b/11.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$80</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="102">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Corrected</t>
+  </si>
+  <si>
+    <t>Amanda</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -708,6 +711,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="181">
@@ -1234,10 +1240,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2937,7 +2943,7 @@
         <v>86</v>
       </c>
       <c r="K66" s="34">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>87</v>
@@ -2985,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="26">
-        <v>3.4000000000000002E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>45</v>
@@ -2999,7 +3005,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="26">
-        <v>3.6999999999999998E-2</v>
+        <v>-2.2700000000000001E-2</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>45</v>
@@ -3011,7 +3017,7 @@
       </c>
       <c r="C72" s="26">
         <f>C71-C70</f>
-        <v>2.9999999999999957E-3</v>
+        <v>4.2999999999999983E-3</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>45</v>
@@ -3030,7 +3036,7 @@
       </c>
       <c r="K72" s="20">
         <f>K66+K69</f>
-        <v>99.90776000000001</v>
+        <v>99.707760000000007</v>
       </c>
       <c r="L72" s="9" t="s">
         <v>87</v>
@@ -3080,6 +3086,14 @@
       </c>
       <c r="F80" s="15">
         <v>41835</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="37">
+        <v>41921</v>
       </c>
     </row>
   </sheetData>
@@ -3093,7 +3107,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.43000000000000005" right="0.43000000000000005" top="0.51181102362204722" bottom="0.43000000000000005" header="0.43000000000000005" footer="0.43000000000000005"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
